--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/manuscripts/20230224 Ashley yeast paper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/manuscripts/20230224 Ashley yeast paper/2023_maloney_et_al/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C815A-99FF-BC45-B5DB-52973A3F1AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97F33B-4D96-8644-94CD-86B63E2464F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30620" yWindow="860" windowWidth="20220" windowHeight="21980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30620" yWindow="860" windowWidth="20220" windowHeight="21980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_rates" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="244">
   <si>
     <t>growth</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> growth_rate_sd.1_d</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1306,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1311,9 +1314,6 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,29 +1692,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1724,8 +1727,11 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1735,8 +1741,12 @@
       <c r="C4" s="3">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f>C4*0.1</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1746,8 +1756,12 @@
       <c r="C5" s="3">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="0">C5*0.1</f>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1757,8 +1771,12 @@
       <c r="C6" s="3">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1768,8 +1786,12 @@
       <c r="C7" s="3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1779,8 +1801,12 @@
       <c r="C8" s="3">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1789,6 +1815,10 @@
       </c>
       <c r="C9" s="3">
         <v>2.37</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.23700000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1818,36 +1848,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1873,271 +1903,271 @@
       <c r="G3" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>-39</v>
       </c>
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="3">
         <v>331.41579393478253</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>4.3031724909789038</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>146.71952590911769</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="3">
         <v>2.6597151409572044</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="3">
         <v>165.50186715698212</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="3">
         <v>2.9479183567480098</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>-39</v>
       </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>336.25293339719985</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>0.69548002553993593</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>150.84004434646229</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="3">
         <v>1.8399831719734521</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>173.76295104540441</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <v>3.3364864182657219</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>-39</v>
       </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="3">
         <v>339.14915708131997</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>9.5103355173514519</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="3">
         <v>154.53001051000663</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="3">
         <v>2.9227358058768464</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="3">
         <v>174.16282582133911</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="3">
         <v>5.9402118038038596</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>-34</v>
       </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="3">
         <v>261.23263642650329</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>2.1547214991258969</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>96.831177193510371</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="3">
         <v>2.7894800779984652</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>116.22242616701402</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="3">
         <v>5.7746811571465226</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>-34</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="3">
         <v>264.27516268643785</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>0.65023265944575115</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="3">
         <v>101.32723195261961</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="3">
         <v>2.008144590507686</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="3">
         <v>117.98471945561779</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="3">
         <v>3.4614791277112613</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>-34</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>265.05079881486574</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>3.710752464271267</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="3">
         <v>102.21789633808372</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="3">
         <v>1.4811829708149289</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="3">
         <v>124.58221328844508</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="3">
         <v>7.0542790198841532</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>-34</v>
       </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>129.76732804883176</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>0.69796089260604199</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="3">
         <v>-42.015882926271715</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="3">
         <v>4.5568874527942187</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>-29.313814446614472</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="3">
         <v>5.380149303867003</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>-34</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>134.60845899300674</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>0.76365295631043917</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="3">
         <v>-40.360827517195546</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="3">
         <v>3.1569746956662605</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>-26.135169783943784</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="3">
         <v>4.3008449466498488</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>-34</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>141.52350365552931</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>0.99973801112081773</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="3">
         <v>-40.033438633266634</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="3">
         <v>2.8509986853715397</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>-24.947384128436926</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="3">
         <v>3.9559147390050624</v>
       </c>
     </row>
@@ -2434,28 +2464,28 @@
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2489,652 +2519,586 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>22.003</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>6.4619999999999997</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>15.643000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>2.3490000000000002</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>1.879</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>3.0910000000000002</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="3">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>19.882000000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>5.64</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>13.948</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>1.917</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>1.883</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>3.016</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="3">
         <v>24.6</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>17.55</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>5.641</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>13.384</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>2.069</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>2.0859999999999999</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>3.37</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>21.408999999999999</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>8.0809999999999995</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>18.382000000000001</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>2.4510000000000001</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>1.4159999999999999</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>2.2989999999999999</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="3">
         <v>30.5</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>32.530999999999999</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>10.215</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>27.498999999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>3.3170000000000002</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>1.6830000000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>2.7730000000000001</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="3">
         <v>33.4</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>32.65</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>8.1210000000000004</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>28.08</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>2.9540000000000002</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <v>1.7749999999999999</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>2.839</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="3">
         <v>26.5</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>19.606999999999999</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>5.9379999999999997</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>14.425000000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>2.1920000000000002</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>1.9179999999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>3.3889999999999998</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="3">
         <v>26.8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>19.332000000000001</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>5.4589999999999996</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>13.699</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>1.8879999999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>2.0419999999999998</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>3.3650000000000002</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="3">
         <v>24.3</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>13.064</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>4.1980000000000004</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>10.428000000000001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>1.617</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>1.71</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>2.8149999999999999</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="3">
         <v>17.7</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>23.533000000000001</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>8.9280000000000008</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>21.094999999999999</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>2.82</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>2.0139999999999998</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>2.9870000000000001</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="3">
         <v>27.9</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>40.445</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>12.654</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>35.417000000000002</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>4.2539999999999996</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>1.956</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>3.1030000000000002</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="3">
         <v>37.5</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>27.956</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>6.7960000000000003</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>24.81</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>2.5219999999999998</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <v>1.7030000000000001</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <v>2.8260000000000001</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="3">
         <v>19.8</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="5">
         <v>12.127000000000001</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>3.6259999999999999</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>8.7149999999999999</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>1.3149999999999999</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <v>1.5629999999999999</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="5">
         <v>2.6240000000000001</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>17.2</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="5">
         <v>17.515999999999998</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>5.0410000000000004</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>12.166</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>1.673</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="5">
         <v>1.9490000000000001</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="5">
         <v>3.2949999999999999</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>27.2</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="5">
         <v>8.2409999999999997</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>2.6320000000000001</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>6.1269999999999998</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
         <v>0.94099999999999995</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <v>1.849</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="5">
         <v>3.1789999999999998</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="3">
         <v>11.8</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>21.135000000000002</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>8.0530000000000008</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>18.414000000000001</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>2.456</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <v>1.8049999999999999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>2.992</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="3">
         <v>24.6</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="5">
         <v>24.641999999999999</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="5">
         <v>7.6319999999999997</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <v>20.242999999999999</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="5">
         <v>2.3839999999999999</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="5">
         <v>1.6870000000000001</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="5">
         <v>2.589</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="5">
         <v>27.855</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>6.7080000000000002</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>23.308</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>2.39</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="5">
         <v>1.722</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>2.5979999999999999</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="3">
         <v>26.1</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3185,22 +3149,22 @@
       <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3240,19 +3204,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="3">
@@ -3275,19 +3239,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F5" s="3">
@@ -3310,19 +3274,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F6" s="3">
@@ -3345,19 +3309,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="3">
@@ -3380,19 +3344,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F8" s="3">
@@ -3415,19 +3379,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="3">
@@ -3450,19 +3414,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F10" s="3">
@@ -3485,19 +3449,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="13">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F11" s="3">
@@ -3520,19 +3484,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="3">
@@ -3555,19 +3519,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="3">
@@ -3590,19 +3554,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="13">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F14" s="3">
@@ -3625,19 +3589,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="13">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="3">
@@ -3660,19 +3624,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="3">
@@ -3695,19 +3659,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="3">
@@ -3730,19 +3694,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="3">
@@ -3765,19 +3729,19 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F19" s="3">
@@ -3800,26 +3764,26 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="13">
-        <v>2</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="3">
@@ -3842,19 +3806,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="3">
@@ -3877,19 +3841,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="13">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="3">
@@ -3912,19 +3876,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F24" s="3">
@@ -3947,19 +3911,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="13">
-        <v>2</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F25" s="3">
@@ -3982,19 +3946,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="13">
-        <v>2</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="3">
@@ -4017,19 +3981,19 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="13">
-        <v>2</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="3">
@@ -4052,19 +4016,19 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="13">
-        <v>2</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F28" s="3">
@@ -4087,19 +4051,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="13">
-        <v>2</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="3">
@@ -4122,19 +4086,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="13">
-        <v>2</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="3">
@@ -4157,19 +4121,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="13">
-        <v>2</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F31" s="3">
@@ -4192,19 +4156,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="13">
-        <v>2</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="3">
@@ -4227,19 +4191,19 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="13">
-        <v>2</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F33" s="3">
@@ -4262,19 +4226,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="13">
-        <v>2</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F34" s="3">
@@ -4297,19 +4261,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="13">
-        <v>2</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F35" s="3">
@@ -4332,19 +4296,19 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="13">
-        <v>2</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="10">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F36" s="3">
@@ -4367,26 +4331,26 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="13">
-        <v>2</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="3">
@@ -4409,19 +4373,19 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="13">
-        <v>2</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F39" s="3">
@@ -4444,19 +4408,19 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="13">
-        <v>2</v>
-      </c>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="10">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F40" s="3">
@@ -4479,19 +4443,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13">
-        <v>2</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>107</v>
       </c>
       <c r="F41" s="3">
@@ -4514,19 +4478,19 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="13">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F42" s="3">
@@ -4549,19 +4513,19 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="13">
-        <v>2</v>
-      </c>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F43" s="3">
@@ -4584,19 +4548,19 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="13">
-        <v>2</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F44" s="3">
@@ -4619,19 +4583,19 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="13">
-        <v>2</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="10">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F45" s="3">
@@ -4654,19 +4618,19 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="13">
-        <v>2</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="10">
+        <v>2</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F46" s="3">
@@ -4689,19 +4653,19 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="13">
-        <v>2</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="10">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F47" s="3">
@@ -4724,19 +4688,19 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="13">
-        <v>2</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F48" s="3">
@@ -4759,19 +4723,19 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="13">
-        <v>2</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="10">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F49" s="3">
@@ -4794,19 +4758,19 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="13">
-        <v>2</v>
-      </c>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="10">
+        <v>2</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F50" s="3">
@@ -4829,19 +4793,19 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="13">
-        <v>2</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="C51" s="10">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="3">
@@ -4864,19 +4828,19 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="10">
         <v>1</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F52" s="3">
@@ -4899,19 +4863,19 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="13">
-        <v>2</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F53" s="3">
@@ -4934,19 +4898,19 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="13">
-        <v>2</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="10">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="3">
@@ -4969,19 +4933,19 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="10">
         <v>1</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F55" s="3">
@@ -5004,19 +4968,19 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="13">
-        <v>2</v>
-      </c>
-      <c r="D56" s="13" t="s">
+      <c r="C56" s="10">
+        <v>2</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F56" s="3">
@@ -5039,19 +5003,19 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="13">
-        <v>2</v>
-      </c>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="10">
+        <v>2</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F57" s="3">
@@ -5074,19 +5038,19 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="13">
-        <v>2</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F58" s="3">
@@ -5109,19 +5073,19 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13">
-        <v>2</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="10">
+        <v>2</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F59" s="3">
@@ -5144,19 +5108,19 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="13">
-        <v>2</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="C60" s="10">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F60" s="3">
@@ -5179,19 +5143,19 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="13">
-        <v>2</v>
-      </c>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F61" s="3">
@@ -5214,26 +5178,26 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="13">
-        <v>2</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="C63" s="10">
+        <v>2</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F63" s="3">
@@ -5256,19 +5220,19 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="13">
-        <v>2</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="C64" s="10">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F64" s="3">
@@ -5291,19 +5255,19 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="13">
-        <v>2</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F65" s="3">
@@ -5326,19 +5290,19 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="13">
-        <v>2</v>
-      </c>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="10">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F66" s="3">
@@ -5361,19 +5325,19 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="13">
-        <v>2</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="C67" s="10">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F67" s="3">
@@ -5396,19 +5360,19 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="13">
-        <v>2</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F68" s="3">
@@ -5431,19 +5395,19 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="13">
-        <v>2</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="C69" s="10">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="11" t="s">
         <v>111</v>
       </c>
       <c r="F69" s="3">
@@ -5466,19 +5430,19 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="13">
-        <v>2</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F70" s="3">
@@ -5501,19 +5465,19 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="13">
-        <v>2</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="3">
@@ -5536,19 +5500,19 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="13">
-        <v>2</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="12" t="s">
         <v>99</v>
       </c>
       <c r="F72" s="3">
@@ -5571,19 +5535,19 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="13">
-        <v>2</v>
-      </c>
-      <c r="D73" s="13" t="s">
+      <c r="C73" s="10">
+        <v>2</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F73" s="3">
@@ -5606,19 +5570,19 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="13">
-        <v>2</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="C74" s="10">
+        <v>2</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F74" s="3">
@@ -5641,19 +5605,19 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="13">
-        <v>2</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F75" s="3">
@@ -5676,19 +5640,19 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="13">
-        <v>2</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="C76" s="10">
+        <v>2</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F76" s="3">
@@ -5711,19 +5675,19 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="10">
         <v>1</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F77" s="3">
@@ -5746,19 +5710,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="10">
         <v>1</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F78" s="3">
@@ -5781,19 +5745,19 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="13">
-        <v>2</v>
-      </c>
-      <c r="D79" s="13" t="s">
+      <c r="C79" s="10">
+        <v>2</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F79" s="3">
@@ -5816,19 +5780,19 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="13">
-        <v>2</v>
-      </c>
-      <c r="D80" s="13" t="s">
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F80" s="3">
@@ -5851,19 +5815,19 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="13">
-        <v>2</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="C81" s="10">
+        <v>2</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F81" s="3">
@@ -5886,19 +5850,19 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="13">
-        <v>2</v>
-      </c>
-      <c r="D82" s="13" t="s">
+      <c r="C82" s="10">
+        <v>2</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="12" t="s">
         <v>105</v>
       </c>
       <c r="F82" s="3">
@@ -5921,19 +5885,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C83" s="13">
-        <v>2</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F83" s="3">
@@ -5956,19 +5920,19 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="13">
-        <v>2</v>
-      </c>
-      <c r="D84" s="13" t="s">
+      <c r="C84" s="10">
+        <v>2</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F84" s="3">
@@ -5991,19 +5955,19 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="13">
-        <v>2</v>
-      </c>
-      <c r="D85" s="13" t="s">
+      <c r="C85" s="10">
+        <v>2</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F85" s="3">
@@ -6026,19 +5990,19 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="13">
-        <v>2</v>
-      </c>
-      <c r="D86" s="13" t="s">
+      <c r="C86" s="10">
+        <v>2</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="11" t="s">
         <v>114</v>
       </c>
       <c r="F86" s="3">
@@ -6061,26 +6025,26 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="14"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="10">
         <v>191221</v>
       </c>
-      <c r="C88" s="13">
-        <v>2</v>
-      </c>
-      <c r="D88" s="13" t="s">
+      <c r="C88" s="10">
+        <v>2</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="11" t="s">
         <v>115</v>
       </c>
       <c r="F88" s="3">
@@ -6103,19 +6067,19 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="13">
-        <v>2</v>
-      </c>
-      <c r="D89" s="13" t="s">
+      <c r="C89" s="10">
+        <v>2</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F89" s="3">
@@ -6138,19 +6102,19 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="13">
-        <v>2</v>
-      </c>
-      <c r="D90" s="13" t="s">
+      <c r="C90" s="10">
+        <v>2</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F90" s="3">
@@ -6173,19 +6137,19 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="13">
-        <v>2</v>
-      </c>
-      <c r="D91" s="13" t="s">
+      <c r="C91" s="10">
+        <v>2</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="11" t="s">
         <v>116</v>
       </c>
       <c r="F91" s="3">
@@ -6208,19 +6172,19 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="13">
-        <v>2</v>
-      </c>
-      <c r="D92" s="13" t="s">
+      <c r="C92" s="10">
+        <v>2</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="11" t="s">
         <v>117</v>
       </c>
       <c r="F92" s="3">
@@ -6243,19 +6207,19 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C93" s="13">
-        <v>2</v>
-      </c>
-      <c r="D93" s="13" t="s">
+      <c r="C93" s="10">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="11" t="s">
         <v>118</v>
       </c>
       <c r="F93" s="3">
@@ -6278,19 +6242,19 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="13">
-        <v>2</v>
-      </c>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F94" s="3">
@@ -6313,19 +6277,19 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="13">
-        <v>2</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="10">
+        <v>2</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F95" s="3">
@@ -6348,19 +6312,19 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C96" s="13">
-        <v>2</v>
-      </c>
-      <c r="D96" s="13" t="s">
+      <c r="C96" s="10">
+        <v>2</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F96" s="3">
@@ -6383,19 +6347,19 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="13">
-        <v>2</v>
-      </c>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="10">
+        <v>2</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F97" s="3">
@@ -6418,19 +6382,19 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C98" s="13">
-        <v>2</v>
-      </c>
-      <c r="D98" s="13" t="s">
+      <c r="C98" s="10">
+        <v>2</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="11" t="s">
         <v>120</v>
       </c>
       <c r="F98" s="3">
@@ -6453,19 +6417,19 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="10">
         <v>191221</v>
       </c>
-      <c r="C99" s="13">
-        <v>2</v>
-      </c>
-      <c r="D99" s="13" t="s">
+      <c r="C99" s="10">
+        <v>2</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="14" t="s">
         <v>121</v>
       </c>
       <c r="F99" s="3">
@@ -6488,19 +6452,19 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="13">
-        <v>2</v>
-      </c>
-      <c r="D100" s="13" t="s">
+      <c r="C100" s="10">
+        <v>2</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F100" s="3">
@@ -6523,19 +6487,19 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C101" s="13">
-        <v>2</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F101" s="3">
@@ -6558,19 +6522,19 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="13">
-        <v>2</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="C102" s="10">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F102" s="3">
@@ -6593,19 +6557,19 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C103" s="13">
-        <v>2</v>
-      </c>
-      <c r="D103" s="13" t="s">
+      <c r="C103" s="10">
+        <v>2</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="11" t="s">
         <v>123</v>
       </c>
       <c r="F103" s="3">
@@ -6628,19 +6592,19 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="13">
-        <v>2</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="C104" s="10">
+        <v>2</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="11" t="s">
         <v>124</v>
       </c>
       <c r="F104" s="3">
@@ -6663,19 +6627,19 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="13">
-        <v>2</v>
-      </c>
-      <c r="D105" s="13" t="s">
+      <c r="C105" s="10">
+        <v>2</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F105" s="3">
@@ -6698,19 +6662,19 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C106" s="13">
-        <v>2</v>
-      </c>
-      <c r="D106" s="13" t="s">
+      <c r="C106" s="10">
+        <v>2</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F106" s="3">
@@ -6733,19 +6697,19 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="13">
-        <v>2</v>
-      </c>
-      <c r="D107" s="13" t="s">
+      <c r="C107" s="10">
+        <v>2</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F107" s="3">
@@ -6768,19 +6732,19 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C108" s="13">
-        <v>2</v>
-      </c>
-      <c r="D108" s="13" t="s">
+      <c r="C108" s="10">
+        <v>2</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="11" t="s">
         <v>125</v>
       </c>
       <c r="F108" s="3">
@@ -6803,19 +6767,19 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C109" s="13">
-        <v>2</v>
-      </c>
-      <c r="D109" s="13" t="s">
+      <c r="C109" s="10">
+        <v>2</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="11" t="s">
         <v>126</v>
       </c>
       <c r="F109" s="3">
@@ -6838,19 +6802,19 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C110" s="13">
-        <v>2</v>
-      </c>
-      <c r="D110" s="13" t="s">
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F110" s="3">
@@ -6873,19 +6837,19 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C111" s="13">
-        <v>2</v>
-      </c>
-      <c r="D111" s="13" t="s">
+      <c r="C111" s="10">
+        <v>2</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F111" s="3">
@@ -6908,19 +6872,19 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="13">
-        <v>2</v>
-      </c>
-      <c r="D112" s="13" t="s">
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F112" s="3">
@@ -6943,19 +6907,19 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C113" s="13">
-        <v>2</v>
-      </c>
-      <c r="D113" s="13" t="s">
+      <c r="C113" s="10">
+        <v>2</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F113" s="3">
@@ -6978,19 +6942,19 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C114" s="13">
-        <v>2</v>
-      </c>
-      <c r="D114" s="13" t="s">
+      <c r="C114" s="10">
+        <v>2</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F114" s="3">
@@ -7013,19 +6977,19 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C115" s="13">
-        <v>2</v>
-      </c>
-      <c r="D115" s="13" t="s">
+      <c r="C115" s="10">
+        <v>2</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F115" s="3">
@@ -7048,19 +7012,19 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C116" s="13">
-        <v>2</v>
-      </c>
-      <c r="D116" s="13" t="s">
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F116" s="3">
@@ -7083,19 +7047,19 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C117" s="13">
-        <v>2</v>
-      </c>
-      <c r="D117" s="13" t="s">
+      <c r="C117" s="10">
+        <v>2</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="11" t="s">
         <v>130</v>
       </c>
       <c r="F117" s="3">
@@ -7118,19 +7082,19 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="13">
-        <v>2</v>
-      </c>
-      <c r="D118" s="13" t="s">
+      <c r="C118" s="10">
+        <v>2</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="11" t="s">
         <v>130</v>
       </c>
       <c r="F118" s="3">
@@ -7153,19 +7117,19 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="13">
-        <v>2</v>
-      </c>
-      <c r="D119" s="13" t="s">
+      <c r="C119" s="10">
+        <v>2</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F119" s="3">
@@ -7188,19 +7152,19 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C120" s="13">
-        <v>2</v>
-      </c>
-      <c r="D120" s="13" t="s">
+      <c r="C120" s="10">
+        <v>2</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="11" t="s">
         <v>131</v>
       </c>
       <c r="F120" s="3">
@@ -7223,19 +7187,19 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="13">
-        <v>2</v>
-      </c>
-      <c r="D121" s="13" t="s">
+      <c r="C121" s="10">
+        <v>2</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F121" s="3">
@@ -7258,19 +7222,19 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C122" s="13">
-        <v>2</v>
-      </c>
-      <c r="D122" s="13" t="s">
+      <c r="C122" s="10">
+        <v>2</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F122" s="3">
@@ -7293,19 +7257,19 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C123" s="13">
-        <v>2</v>
-      </c>
-      <c r="D123" s="13" t="s">
+      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F123" s="3">
@@ -7328,19 +7292,19 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C124" s="13">
-        <v>2</v>
-      </c>
-      <c r="D124" s="13" t="s">
+      <c r="C124" s="10">
+        <v>2</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F124" s="3">
@@ -7363,19 +7327,19 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C125" s="13">
-        <v>2</v>
-      </c>
-      <c r="D125" s="13" t="s">
+      <c r="C125" s="10">
+        <v>2</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F125" s="3">
@@ -7398,26 +7362,26 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="14"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="10">
         <v>191221</v>
       </c>
-      <c r="C127" s="13">
-        <v>2</v>
-      </c>
-      <c r="D127" s="13" t="s">
+      <c r="C127" s="10">
+        <v>2</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="11" t="s">
         <v>133</v>
       </c>
       <c r="F127" s="3">
@@ -7440,19 +7404,19 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="13">
-        <v>2</v>
-      </c>
-      <c r="D128" s="13" t="s">
+      <c r="C128" s="10">
+        <v>2</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F128" s="3">
@@ -7475,19 +7439,19 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C129" s="13">
-        <v>2</v>
-      </c>
-      <c r="D129" s="13" t="s">
+      <c r="C129" s="10">
+        <v>2</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F129" s="3">
@@ -7510,19 +7474,19 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C130" s="13">
-        <v>2</v>
-      </c>
-      <c r="D130" s="13" t="s">
+      <c r="C130" s="10">
+        <v>2</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F130" s="3">
@@ -7545,19 +7509,19 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="13">
-        <v>2</v>
-      </c>
-      <c r="D131" s="13" t="s">
+      <c r="C131" s="10">
+        <v>2</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F131" s="3">
@@ -7580,19 +7544,19 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C132" s="13">
-        <v>2</v>
-      </c>
-      <c r="D132" s="13" t="s">
+      <c r="C132" s="10">
+        <v>2</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F132" s="3">
@@ -7615,19 +7579,19 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="13">
-        <v>2</v>
-      </c>
-      <c r="D133" s="13" t="s">
+      <c r="C133" s="10">
+        <v>2</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F133" s="3">
@@ -7650,19 +7614,19 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C134" s="13">
-        <v>2</v>
-      </c>
-      <c r="D134" s="13" t="s">
+      <c r="C134" s="10">
+        <v>2</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" s="11" t="s">
         <v>135</v>
       </c>
       <c r="F134" s="3">
@@ -7685,19 +7649,19 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C135" s="13">
-        <v>2</v>
-      </c>
-      <c r="D135" s="13" t="s">
+      <c r="C135" s="10">
+        <v>2</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F135" s="3">
@@ -7720,19 +7684,19 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C136" s="13">
-        <v>2</v>
-      </c>
-      <c r="D136" s="13" t="s">
+      <c r="C136" s="10">
+        <v>2</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F136" s="3">
@@ -7755,19 +7719,19 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C137" s="13">
-        <v>2</v>
-      </c>
-      <c r="D137" s="13" t="s">
+      <c r="C137" s="10">
+        <v>2</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" s="11" t="s">
         <v>138</v>
       </c>
       <c r="F137" s="3">
@@ -7790,19 +7754,19 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="10">
         <v>191221</v>
       </c>
-      <c r="C138" s="13">
-        <v>2</v>
-      </c>
-      <c r="D138" s="13" t="s">
+      <c r="C138" s="10">
+        <v>2</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="14" t="s">
         <v>139</v>
       </c>
       <c r="F138" s="3">
@@ -7825,19 +7789,19 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C139" s="13">
-        <v>2</v>
-      </c>
-      <c r="D139" s="13" t="s">
+      <c r="C139" s="10">
+        <v>2</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F139" s="3">
@@ -7860,19 +7824,19 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C140" s="13">
-        <v>2</v>
-      </c>
-      <c r="D140" s="13" t="s">
+      <c r="C140" s="10">
+        <v>2</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E140" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F140" s="3">
@@ -7895,19 +7859,19 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C141" s="13">
-        <v>2</v>
-      </c>
-      <c r="D141" s="13" t="s">
+      <c r="C141" s="10">
+        <v>2</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F141" s="3">
@@ -7930,19 +7894,19 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C142" s="13">
-        <v>2</v>
-      </c>
-      <c r="D142" s="13" t="s">
+      <c r="C142" s="10">
+        <v>2</v>
+      </c>
+      <c r="D142" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E142" s="14" t="s">
+      <c r="E142" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F142" s="3">
@@ -7965,19 +7929,19 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C143" s="13">
-        <v>2</v>
-      </c>
-      <c r="D143" s="13" t="s">
+      <c r="C143" s="10">
+        <v>2</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F143" s="3">
@@ -8000,19 +7964,19 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C144" s="13">
-        <v>2</v>
-      </c>
-      <c r="D144" s="13" t="s">
+      <c r="C144" s="10">
+        <v>2</v>
+      </c>
+      <c r="D144" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="E144" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F144" s="3">
@@ -8035,19 +7999,19 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C145" s="13">
-        <v>2</v>
-      </c>
-      <c r="D145" s="13" t="s">
+      <c r="C145" s="10">
+        <v>2</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="E145" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F145" s="3">
@@ -8070,19 +8034,19 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C146" s="13">
-        <v>2</v>
-      </c>
-      <c r="D146" s="13" t="s">
+      <c r="C146" s="10">
+        <v>2</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F146" s="3">
@@ -8105,19 +8069,19 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C147" s="13">
-        <v>2</v>
-      </c>
-      <c r="D147" s="13" t="s">
+      <c r="C147" s="10">
+        <v>2</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F147" s="3">
@@ -8140,19 +8104,19 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C148" s="13">
-        <v>2</v>
-      </c>
-      <c r="D148" s="13" t="s">
+      <c r="C148" s="10">
+        <v>2</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F148" s="3">
@@ -8175,19 +8139,19 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C149" s="13">
-        <v>2</v>
-      </c>
-      <c r="D149" s="13" t="s">
+      <c r="C149" s="10">
+        <v>2</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F149" s="3">
@@ -8210,19 +8174,19 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C150" s="13">
-        <v>2</v>
-      </c>
-      <c r="D150" s="13" t="s">
+      <c r="C150" s="10">
+        <v>2</v>
+      </c>
+      <c r="D150" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F150" s="3">
@@ -8245,19 +8209,19 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="13">
-        <v>2</v>
-      </c>
-      <c r="D151" s="13" t="s">
+      <c r="C151" s="10">
+        <v>2</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F151" s="3">
@@ -8280,19 +8244,19 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C152" s="13">
-        <v>2</v>
-      </c>
-      <c r="D152" s="13" t="s">
+      <c r="C152" s="10">
+        <v>2</v>
+      </c>
+      <c r="D152" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" s="11" t="s">
         <v>147</v>
       </c>
       <c r="F152" s="3">
@@ -8315,19 +8279,19 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C153" s="13">
-        <v>2</v>
-      </c>
-      <c r="D153" s="13" t="s">
+      <c r="C153" s="10">
+        <v>2</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" s="11" t="s">
         <v>146</v>
       </c>
       <c r="F153" s="3">
@@ -8350,19 +8314,19 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C154" s="13">
-        <v>2</v>
-      </c>
-      <c r="D154" s="13" t="s">
+      <c r="C154" s="10">
+        <v>2</v>
+      </c>
+      <c r="D154" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" s="11" t="s">
         <v>147</v>
       </c>
       <c r="F154" s="3">
@@ -8385,19 +8349,19 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C155" s="13">
-        <v>2</v>
-      </c>
-      <c r="D155" s="13" t="s">
+      <c r="C155" s="10">
+        <v>2</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F155" s="3">
@@ -8420,19 +8384,19 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C156" s="13">
-        <v>2</v>
-      </c>
-      <c r="D156" s="13" t="s">
+      <c r="C156" s="10">
+        <v>2</v>
+      </c>
+      <c r="D156" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="E156" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F156" s="3">
@@ -8455,19 +8419,19 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C157" s="13">
-        <v>2</v>
-      </c>
-      <c r="D157" s="13" t="s">
+      <c r="C157" s="10">
+        <v>2</v>
+      </c>
+      <c r="D157" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F157" s="3">
@@ -8490,19 +8454,19 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C158" s="13">
-        <v>2</v>
-      </c>
-      <c r="D158" s="13" t="s">
+      <c r="C158" s="10">
+        <v>2</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F158" s="3">
@@ -8525,19 +8489,19 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="13">
-        <v>2</v>
-      </c>
-      <c r="D159" s="13" t="s">
+      <c r="C159" s="10">
+        <v>2</v>
+      </c>
+      <c r="D159" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="E159" s="11" t="s">
         <v>148</v>
       </c>
       <c r="F159" s="3">
@@ -8560,19 +8524,19 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C160" s="13">
-        <v>2</v>
-      </c>
-      <c r="D160" s="13" t="s">
+      <c r="C160" s="10">
+        <v>2</v>
+      </c>
+      <c r="D160" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F160" s="3">
@@ -8595,19 +8559,19 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C161" s="13">
-        <v>2</v>
-      </c>
-      <c r="D161" s="13" t="s">
+      <c r="C161" s="10">
+        <v>2</v>
+      </c>
+      <c r="D161" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="14" t="s">
+      <c r="E161" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F161" s="3">
@@ -8630,19 +8594,19 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C162" s="13">
-        <v>2</v>
-      </c>
-      <c r="D162" s="13" t="s">
+      <c r="C162" s="10">
+        <v>2</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E162" s="14" t="s">
+      <c r="E162" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F162" s="3">
@@ -8665,19 +8629,19 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C163" s="13">
-        <v>2</v>
-      </c>
-      <c r="D163" s="13" t="s">
+      <c r="C163" s="10">
+        <v>2</v>
+      </c>
+      <c r="D163" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="E163" s="11" t="s">
         <v>149</v>
       </c>
       <c r="F163" s="3">
@@ -8700,19 +8664,19 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C164" s="13">
-        <v>2</v>
-      </c>
-      <c r="D164" s="13" t="s">
+      <c r="C164" s="10">
+        <v>2</v>
+      </c>
+      <c r="D164" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E164" s="14" t="s">
+      <c r="E164" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F164" s="3">
@@ -8743,7 +8707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A828B-23EF-5B48-B654-69DB2C0BDCC4}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8755,7 +8719,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8763,16 +8727,16 @@
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>158</v>
       </c>
     </row>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/manuscripts/20230224 Ashley yeast paper/2023_maloney_et_al/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97F33B-4D96-8644-94CD-86B63E2464F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EE47F-0B21-0347-8696-2B35C76A892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30620" yWindow="860" windowWidth="20220" windowHeight="21980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="560" windowWidth="34760" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_rates" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="245">
   <si>
     <t>growth</t>
   </si>
@@ -769,6 +769,9 @@
   </si>
   <si>
     <t xml:space="preserve"> growth_rate_sd.1_d</t>
+  </si>
+  <si>
+    <t>strain</t>
   </si>
 </sst>
 </file>
@@ -1692,131 +1695,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>0.65</v>
       </c>
-      <c r="D4">
-        <f>C4*0.1</f>
+      <c r="E4">
+        <f>D4*0.1</f>
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>1.35</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D9" si="0">C5*0.1</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="0">D5*0.1</f>
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>2.69</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>5.5000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>0.11599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>2.37</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>0.23700000000000002</v>
       </c>
@@ -1830,15 +1838,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -2442,7 +2450,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sk/Dropbox/Science/manuscripts/20230224 Ashley yeast paper/2023_maloney_et_al/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleymaloney/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EE47F-0B21-0347-8696-2B35C76A892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D867B766-C0AD-724A-9715-1E6236E88AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="560" windowWidth="34760" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24220" yWindow="5120" windowWidth="26320" windowHeight="15080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="growth_rates" sheetId="2" r:id="rId1"/>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2109,16 +2109,16 @@
         <v>0.69796089260604199</v>
       </c>
       <c r="F10" s="3">
-        <v>-42.015882926271715</v>
+        <v>7.37</v>
       </c>
       <c r="G10" s="3">
-        <v>4.5568874527942187</v>
+        <v>1.3</v>
       </c>
       <c r="H10" s="3">
-        <v>-29.313814446614472</v>
+        <v>25.14</v>
       </c>
       <c r="I10" s="3">
-        <v>5.380149303867003</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2138,16 +2138,16 @@
         <v>0.76365295631043917</v>
       </c>
       <c r="F11" s="3">
-        <v>-40.360827517195546</v>
+        <v>5.36</v>
       </c>
       <c r="G11" s="3">
-        <v>3.1569746956662605</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>-26.135169783943784</v>
+        <v>22.02</v>
       </c>
       <c r="I11" s="3">
-        <v>4.3008449466498488</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2167,16 +2167,16 @@
         <v>0.99973801112081773</v>
       </c>
       <c r="F12" s="3">
-        <v>-40.033438633266634</v>
+        <v>6.53</v>
       </c>
       <c r="G12" s="3">
-        <v>2.8509986853715397</v>
+        <v>1.6</v>
       </c>
       <c r="H12" s="3">
-        <v>-24.947384128436926</v>
+        <v>21.59</v>
       </c>
       <c r="I12" s="3">
-        <v>3.9559147390050624</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
